--- a/data/pca/factorExposure/factorExposure_2010-04-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-04-28.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01570766754835461</v>
+        <v>-0.01683348653851488</v>
       </c>
       <c r="C2">
-        <v>-0.002951329323246703</v>
+        <v>0.001126145053234813</v>
       </c>
       <c r="D2">
-        <v>-0.006605769914859041</v>
+        <v>-0.008252723724556483</v>
       </c>
       <c r="E2">
-        <v>0.02247765328582489</v>
+        <v>0.0003731514326677105</v>
       </c>
       <c r="F2">
-        <v>-0.004359121944556916</v>
+        <v>-0.01191434904879907</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1161514672690448</v>
+        <v>-0.09302428424513175</v>
       </c>
       <c r="C4">
-        <v>-0.08297996386176643</v>
+        <v>0.01694037104727322</v>
       </c>
       <c r="D4">
-        <v>0.01590247807237066</v>
+        <v>-0.08307631872149136</v>
       </c>
       <c r="E4">
-        <v>0.01326060560411075</v>
+        <v>-0.02985268715649165</v>
       </c>
       <c r="F4">
-        <v>-0.0174981578499553</v>
+        <v>0.03155541085826213</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1241047320916501</v>
+        <v>-0.1530552857715685</v>
       </c>
       <c r="C6">
-        <v>-0.03091715234665397</v>
+        <v>0.02480774581602773</v>
       </c>
       <c r="D6">
-        <v>-0.03449729733094939</v>
+        <v>0.02212785816117804</v>
       </c>
       <c r="E6">
-        <v>-0.04893462700002728</v>
+        <v>-0.009337037703443567</v>
       </c>
       <c r="F6">
-        <v>-0.004598876517464725</v>
+        <v>0.04105107086259129</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07538764324052531</v>
+        <v>-0.06023241836256311</v>
       </c>
       <c r="C7">
-        <v>-0.08083989718698739</v>
+        <v>-0.0003178357736540833</v>
       </c>
       <c r="D7">
-        <v>-0.00734913547775259</v>
+        <v>-0.05121435750841647</v>
       </c>
       <c r="E7">
-        <v>0.0395842145452996</v>
+        <v>-0.01483857487354907</v>
       </c>
       <c r="F7">
-        <v>-0.001848129945406515</v>
+        <v>0.05446832019553419</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05053141560621462</v>
+        <v>-0.05873314541295323</v>
       </c>
       <c r="C8">
-        <v>-0.04506063921114693</v>
+        <v>-0.01275566588167693</v>
       </c>
       <c r="D8">
-        <v>0.009316251055660646</v>
+        <v>-0.02938815337038067</v>
       </c>
       <c r="E8">
-        <v>-0.02506233702714394</v>
+        <v>-0.01421345724776967</v>
       </c>
       <c r="F8">
-        <v>0.04264278761781096</v>
+        <v>-0.03000315506533595</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.082281852417012</v>
+        <v>-0.07117335882465402</v>
       </c>
       <c r="C9">
-        <v>-0.06346819827875029</v>
+        <v>0.01306748212394996</v>
       </c>
       <c r="D9">
-        <v>0.02048237237476195</v>
+        <v>-0.08325629900399203</v>
       </c>
       <c r="E9">
-        <v>0.006373718300429367</v>
+        <v>-0.0250842075405401</v>
       </c>
       <c r="F9">
-        <v>-0.01302514889550208</v>
+        <v>0.05394374399709677</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1235250616439563</v>
+        <v>-0.09397117790450786</v>
       </c>
       <c r="C10">
-        <v>0.1569395080710925</v>
+        <v>0.01676940602786058</v>
       </c>
       <c r="D10">
-        <v>-0.02243680655000225</v>
+        <v>0.1715116862085879</v>
       </c>
       <c r="E10">
-        <v>0.0346112757556675</v>
+        <v>0.0380146511233887</v>
       </c>
       <c r="F10">
-        <v>-0.01750607813289116</v>
+        <v>-0.05287007089726576</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.07907826375983928</v>
+        <v>-0.08771982848471541</v>
       </c>
       <c r="C11">
-        <v>-0.07192882068225878</v>
+        <v>0.0124374660422351</v>
       </c>
       <c r="D11">
-        <v>0.03444648804680738</v>
+        <v>-0.1140338706019523</v>
       </c>
       <c r="E11">
-        <v>-0.00674136152662997</v>
+        <v>-0.04826220083746217</v>
       </c>
       <c r="F11">
-        <v>-0.006653908006628</v>
+        <v>0.02101864527288277</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07171345258047314</v>
+        <v>-0.09300095014889669</v>
       </c>
       <c r="C12">
-        <v>-0.07347530360007093</v>
+        <v>0.01030821327349134</v>
       </c>
       <c r="D12">
-        <v>0.05596583209927358</v>
+        <v>-0.1211601723670854</v>
       </c>
       <c r="E12">
-        <v>0.01472199109344767</v>
+        <v>-0.04770263743859311</v>
       </c>
       <c r="F12">
-        <v>0.03665843820477106</v>
+        <v>0.02338236681065877</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.02867276756157688</v>
+        <v>-0.04284972983171761</v>
       </c>
       <c r="C13">
-        <v>-0.03341760070293413</v>
+        <v>0.003905749335367248</v>
       </c>
       <c r="D13">
-        <v>-0.01590166865858621</v>
+        <v>-0.04794891054673049</v>
       </c>
       <c r="E13">
-        <v>0.01651008328302576</v>
+        <v>0.01149233851853423</v>
       </c>
       <c r="F13">
-        <v>0.01800224677638289</v>
+        <v>0.0143725472647398</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03768019459029608</v>
+        <v>-0.02205754552929075</v>
       </c>
       <c r="C14">
-        <v>-0.03275367369134196</v>
+        <v>0.01462263830392719</v>
       </c>
       <c r="D14">
-        <v>0.02501301910579837</v>
+        <v>-0.03251390137130907</v>
       </c>
       <c r="E14">
-        <v>-0.003144271213868937</v>
+        <v>-0.01912825593730388</v>
       </c>
       <c r="F14">
-        <v>0.02560693580307253</v>
+        <v>0.01820040780801339</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01534113873334344</v>
+        <v>-0.03194591985466012</v>
       </c>
       <c r="C15">
-        <v>-0.01839043327247855</v>
+        <v>0.005507601956730328</v>
       </c>
       <c r="D15">
-        <v>-0.06133286901382319</v>
+        <v>-0.04550582932507771</v>
       </c>
       <c r="E15">
-        <v>0.01786022359065749</v>
+        <v>-0.009116358617418507</v>
       </c>
       <c r="F15">
-        <v>-0.0004962648420225092</v>
+        <v>0.03161072171817417</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.0835106174623538</v>
+        <v>-0.07425079543224004</v>
       </c>
       <c r="C16">
-        <v>-0.07204659401964969</v>
+        <v>0.003969681148031584</v>
       </c>
       <c r="D16">
-        <v>0.04966444639486608</v>
+        <v>-0.1160849422211972</v>
       </c>
       <c r="E16">
-        <v>-0.02127625122232677</v>
+        <v>-0.06279323649819946</v>
       </c>
       <c r="F16">
-        <v>0.02364028306293217</v>
+        <v>0.03171559120688744</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02156328910037804</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003750619857657531</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02113888904173484</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.01051258395424154</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.02456389305038853</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04558711065872585</v>
+        <v>-0.0613943442090423</v>
       </c>
       <c r="C20">
-        <v>-0.04807427401692112</v>
+        <v>0.001847477852006684</v>
       </c>
       <c r="D20">
-        <v>-0.01804757744179298</v>
+        <v>-0.07402332033495479</v>
       </c>
       <c r="E20">
-        <v>0.03233404037614446</v>
+        <v>-0.05556762515185248</v>
       </c>
       <c r="F20">
-        <v>0.02982602428103229</v>
+        <v>0.02885602676417804</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.02446018863056507</v>
+        <v>-0.03847399522511042</v>
       </c>
       <c r="C21">
-        <v>-0.009815056028043756</v>
+        <v>0.007659642911851768</v>
       </c>
       <c r="D21">
-        <v>0.02353512126406047</v>
+        <v>-0.03530977886021573</v>
       </c>
       <c r="E21">
-        <v>-0.002845434322544279</v>
+        <v>0.008444490924828406</v>
       </c>
       <c r="F21">
-        <v>0.01046652139271353</v>
+        <v>-0.02062431215506872</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04612783314749274</v>
+        <v>-0.04181483971822027</v>
       </c>
       <c r="C22">
-        <v>-0.004043003657474147</v>
+        <v>6.578460182916965e-05</v>
       </c>
       <c r="D22">
-        <v>-0.613427984324929</v>
+        <v>-0.003072079405463479</v>
       </c>
       <c r="E22">
-        <v>0.1448597788439824</v>
+        <v>-0.0292252663718837</v>
       </c>
       <c r="F22">
-        <v>0.1721276461953709</v>
+        <v>-0.01043406486490686</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04673264051459879</v>
+        <v>-0.04187643196790042</v>
       </c>
       <c r="C23">
-        <v>-0.005161209964178481</v>
+        <v>9.063632951494031e-05</v>
       </c>
       <c r="D23">
-        <v>-0.6158429592190688</v>
+        <v>-0.003192893004498655</v>
       </c>
       <c r="E23">
-        <v>0.1442470231949425</v>
+        <v>-0.02957471170191024</v>
       </c>
       <c r="F23">
-        <v>0.1728226719335517</v>
+        <v>-0.009977204456067005</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08245666044088654</v>
+        <v>-0.08059153221158677</v>
       </c>
       <c r="C24">
-        <v>-0.07208235114270047</v>
+        <v>0.004286941149213136</v>
       </c>
       <c r="D24">
-        <v>0.04376232434390884</v>
+        <v>-0.117104712206388</v>
       </c>
       <c r="E24">
-        <v>-0.003171380100914882</v>
+        <v>-0.0506764240696049</v>
       </c>
       <c r="F24">
-        <v>-0.009143969103026015</v>
+        <v>0.0241096707799729</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08630360710647798</v>
+        <v>-0.08519489038821858</v>
       </c>
       <c r="C25">
-        <v>-0.07356969432930345</v>
+        <v>0.006295498243531906</v>
       </c>
       <c r="D25">
-        <v>0.05918451340294829</v>
+        <v>-0.1056989216400862</v>
       </c>
       <c r="E25">
-        <v>0.008992374946180494</v>
+        <v>-0.03387025602499342</v>
       </c>
       <c r="F25">
-        <v>0.01315447941842338</v>
+        <v>0.03146114335336593</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.0391996288108663</v>
+        <v>-0.05539250395128024</v>
       </c>
       <c r="C26">
-        <v>0.004200506177373594</v>
+        <v>0.01522336495542843</v>
       </c>
       <c r="D26">
-        <v>-0.01510780448690409</v>
+        <v>-0.03595078901738468</v>
       </c>
       <c r="E26">
-        <v>-0.02233464825097844</v>
+        <v>-0.02807331660462471</v>
       </c>
       <c r="F26">
-        <v>0.03702668680432885</v>
+        <v>-0.007923654408508793</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1442614070652666</v>
+        <v>-0.1417279532830068</v>
       </c>
       <c r="C28">
-        <v>0.2867398219791238</v>
+        <v>0.01469287580604323</v>
       </c>
       <c r="D28">
-        <v>0.01193126030205518</v>
+        <v>0.2675358647029417</v>
       </c>
       <c r="E28">
-        <v>-0.06304534337668474</v>
+        <v>0.06847021799913471</v>
       </c>
       <c r="F28">
-        <v>0.05803046521646761</v>
+        <v>0.03139481715470361</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.0336025782165772</v>
+        <v>-0.02704732068772753</v>
       </c>
       <c r="C29">
-        <v>-0.0303815346996709</v>
+        <v>0.008828636470710827</v>
       </c>
       <c r="D29">
-        <v>0.02758050181819395</v>
+        <v>-0.03113349701143307</v>
       </c>
       <c r="E29">
-        <v>0.03579928680784555</v>
+        <v>-0.01193184375147544</v>
       </c>
       <c r="F29">
-        <v>0.06431193308609083</v>
+        <v>-0.01249894772073258</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.09531111641566217</v>
+        <v>-0.06356833480526401</v>
       </c>
       <c r="C30">
-        <v>-0.1015029224191103</v>
+        <v>0.005785937040125658</v>
       </c>
       <c r="D30">
-        <v>0.05139944060239603</v>
+        <v>-0.08277036146169223</v>
       </c>
       <c r="E30">
-        <v>-0.06716854648682735</v>
+        <v>-0.02469604300689535</v>
       </c>
       <c r="F30">
-        <v>0.09607236106472238</v>
+        <v>0.1072056645392392</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.03132429518845833</v>
+        <v>-0.04854119324408865</v>
       </c>
       <c r="C31">
-        <v>-0.04691336808810737</v>
+        <v>0.01515333889943516</v>
       </c>
       <c r="D31">
-        <v>0.003717427795390302</v>
+        <v>-0.02811263488851538</v>
       </c>
       <c r="E31">
-        <v>0.0208367208050499</v>
+        <v>-0.02754180874744617</v>
       </c>
       <c r="F31">
-        <v>-0.005254396374784728</v>
+        <v>-0.004116142050081595</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05301222547481965</v>
+        <v>-0.0480883037949531</v>
       </c>
       <c r="C32">
-        <v>-0.02616057752013348</v>
+        <v>0.0003994519953406543</v>
       </c>
       <c r="D32">
-        <v>0.04015906010523059</v>
+        <v>-0.03050871366607841</v>
       </c>
       <c r="E32">
-        <v>-0.05799209661056386</v>
+        <v>-0.02977230338571437</v>
       </c>
       <c r="F32">
-        <v>-0.0405517159418549</v>
+        <v>0.001175150465279947</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09381398542622824</v>
+        <v>-0.09025103659769435</v>
       </c>
       <c r="C33">
-        <v>-0.06657819573785076</v>
+        <v>0.009480827880871316</v>
       </c>
       <c r="D33">
-        <v>0.02924523479624936</v>
+        <v>-0.09354335788063246</v>
       </c>
       <c r="E33">
-        <v>0.003844109371461074</v>
+        <v>-0.04660356661599097</v>
       </c>
       <c r="F33">
-        <v>0.01242493434564542</v>
+        <v>0.04179859364077491</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06900658849012677</v>
+        <v>-0.06845830174019139</v>
       </c>
       <c r="C34">
-        <v>-0.05496997610203963</v>
+        <v>0.0124792246375557</v>
       </c>
       <c r="D34">
-        <v>0.04574678625439924</v>
+        <v>-0.09786499889056964</v>
       </c>
       <c r="E34">
-        <v>-0.004129103238936761</v>
+        <v>-0.035484683748593</v>
       </c>
       <c r="F34">
-        <v>0.01836170943037854</v>
+        <v>0.04401876106877856</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01322310583576003</v>
+        <v>-0.02451485091158567</v>
       </c>
       <c r="C35">
-        <v>-0.02040837285703451</v>
+        <v>0.00257414177048439</v>
       </c>
       <c r="D35">
-        <v>0.007603493585395554</v>
+        <v>-0.01168995146268544</v>
       </c>
       <c r="E35">
-        <v>0.01750842278325884</v>
+        <v>-0.01171355119128076</v>
       </c>
       <c r="F35">
-        <v>0.02930171389423775</v>
+        <v>0.01005669800432531</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02374041733298892</v>
+        <v>-0.02403050260631127</v>
       </c>
       <c r="C36">
-        <v>-0.01893456682346616</v>
+        <v>0.007459755300851093</v>
       </c>
       <c r="D36">
-        <v>-0.002563658590292073</v>
+        <v>-0.03841686678228181</v>
       </c>
       <c r="E36">
-        <v>-0.003646606869690859</v>
+        <v>-0.01727059618021128</v>
       </c>
       <c r="F36">
-        <v>0.01826860799271538</v>
+        <v>0.01055387320034287</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.009918564141575425</v>
+        <v>-0.001672862954120661</v>
       </c>
       <c r="C38">
-        <v>-0.01722503452281617</v>
+        <v>0.0002735792855366323</v>
       </c>
       <c r="D38">
-        <v>-0.0215293376694063</v>
+        <v>-0.00143401998127218</v>
       </c>
       <c r="E38">
-        <v>0.03219308212216418</v>
+        <v>-0.001699936395219873</v>
       </c>
       <c r="F38">
-        <v>0.05524391503465886</v>
+        <v>-0.0005737428984719544</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1156518728346169</v>
+        <v>-0.1094584429559952</v>
       </c>
       <c r="C39">
-        <v>-0.1164360059001796</v>
+        <v>0.01791062811522418</v>
       </c>
       <c r="D39">
-        <v>0.1575541538282628</v>
+        <v>-0.1521387850182966</v>
       </c>
       <c r="E39">
-        <v>-0.01848818557502156</v>
+        <v>-0.0606622584436302</v>
       </c>
       <c r="F39">
-        <v>0.08358244689257914</v>
+        <v>0.03227884641140001</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.0159740668044167</v>
+        <v>-0.03710523384312427</v>
       </c>
       <c r="C40">
-        <v>-0.0540618188870143</v>
+        <v>0.00735483520956922</v>
       </c>
       <c r="D40">
-        <v>-0.03715989111835781</v>
+        <v>-0.03122762885626415</v>
       </c>
       <c r="E40">
-        <v>0.05819591133265609</v>
+        <v>-0.003306986857522669</v>
       </c>
       <c r="F40">
-        <v>-0.02530426958581752</v>
+        <v>-0.01348469275310108</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02894291472147223</v>
+        <v>-0.02616516937096711</v>
       </c>
       <c r="C41">
-        <v>-0.01656840130053812</v>
+        <v>0.006826934294384163</v>
       </c>
       <c r="D41">
-        <v>0.01332402736323123</v>
+        <v>-0.01084390849880057</v>
       </c>
       <c r="E41">
-        <v>0.01102019538595014</v>
+        <v>-0.01234055557283057</v>
       </c>
       <c r="F41">
-        <v>0.01755747330880439</v>
+        <v>-0.009723828955132805</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03783227104503128</v>
+        <v>-0.04114772166037074</v>
       </c>
       <c r="C43">
-        <v>-0.02016465889083567</v>
+        <v>0.006838213014509723</v>
       </c>
       <c r="D43">
-        <v>-0.007749665166142493</v>
+        <v>-0.02052374394305015</v>
       </c>
       <c r="E43">
-        <v>0.0001803466911731159</v>
+        <v>-0.02527099057150861</v>
       </c>
       <c r="F43">
-        <v>0.05281136165780714</v>
+        <v>-0.01123707688270636</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1304687789919958</v>
+        <v>-0.07191132213816462</v>
       </c>
       <c r="C44">
-        <v>-0.1606081685085421</v>
+        <v>0.02203435631245708</v>
       </c>
       <c r="D44">
-        <v>-0.07482722812238525</v>
+        <v>-0.1008643308004769</v>
       </c>
       <c r="E44">
-        <v>0.1108324069962249</v>
+        <v>-0.06764463149393379</v>
       </c>
       <c r="F44">
-        <v>0.04879791213773056</v>
+        <v>0.1679390217431856</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02848909930805172</v>
+        <v>-0.0218886398742109</v>
       </c>
       <c r="C46">
-        <v>-0.004660886853459726</v>
+        <v>0.004173624180363717</v>
       </c>
       <c r="D46">
-        <v>-0.0217301850337306</v>
+        <v>-0.01114991475616194</v>
       </c>
       <c r="E46">
-        <v>0.0327542206519166</v>
+        <v>-0.02324479531544955</v>
       </c>
       <c r="F46">
-        <v>0.04556080831379587</v>
+        <v>9.095793724098064e-05</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.03830791872173495</v>
+        <v>-0.05191631678538926</v>
       </c>
       <c r="C47">
-        <v>-0.0333418868107162</v>
+        <v>0.003358698736866891</v>
       </c>
       <c r="D47">
-        <v>0.00247146704983179</v>
+        <v>-0.01234162310100631</v>
       </c>
       <c r="E47">
-        <v>0.01309454931500685</v>
+        <v>-0.02231678726233114</v>
       </c>
       <c r="F47">
-        <v>0.002983472434968775</v>
+        <v>-0.04535892891631355</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04368964593028685</v>
+        <v>-0.04778482381964243</v>
       </c>
       <c r="C48">
-        <v>-0.01949579790884507</v>
+        <v>0.003289258675530854</v>
       </c>
       <c r="D48">
-        <v>0.007124808398648323</v>
+        <v>-0.04793390178663705</v>
       </c>
       <c r="E48">
-        <v>0.02068092308129986</v>
+        <v>0.004074197145596377</v>
       </c>
       <c r="F48">
-        <v>-0.01533325118541942</v>
+        <v>0.0106807207463685</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2149702773392534</v>
+        <v>-0.203418559525125</v>
       </c>
       <c r="C49">
-        <v>0.03079827063686122</v>
+        <v>0.01743755422005416</v>
       </c>
       <c r="D49">
-        <v>0.004526394468049702</v>
+        <v>0.01154956069922406</v>
       </c>
       <c r="E49">
-        <v>0.07298110145590951</v>
+        <v>-0.03381213231900046</v>
       </c>
       <c r="F49">
-        <v>-0.1690742186543514</v>
+        <v>0.03667752740878165</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03809016631181393</v>
+        <v>-0.0483894103978942</v>
       </c>
       <c r="C50">
-        <v>-0.03123914808605329</v>
+        <v>0.01124450360262673</v>
       </c>
       <c r="D50">
-        <v>0.01978126247959544</v>
+        <v>-0.02666027543060362</v>
       </c>
       <c r="E50">
-        <v>0.006631120309274711</v>
+        <v>-0.02922445337849294</v>
       </c>
       <c r="F50">
-        <v>0.009096301038306524</v>
+        <v>0.009015740382773857</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01597374882205819</v>
+        <v>-0.002455149657509123</v>
       </c>
       <c r="C51">
-        <v>0.0222506459342798</v>
+        <v>0.000632654191035377</v>
       </c>
       <c r="D51">
-        <v>-0.004903266140186213</v>
+        <v>0.003048787120143476</v>
       </c>
       <c r="E51">
-        <v>0.007910442052572656</v>
+        <v>0.0005317672398398709</v>
       </c>
       <c r="F51">
-        <v>-0.006502988679973534</v>
+        <v>0.005686580733853574</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.09683261798656775</v>
+        <v>-0.1448335439823469</v>
       </c>
       <c r="C52">
-        <v>-0.08935357200745743</v>
+        <v>0.013512242850162</v>
       </c>
       <c r="D52">
-        <v>0.03092758425493972</v>
+        <v>-0.05157139915697698</v>
       </c>
       <c r="E52">
-        <v>0.02074288740115167</v>
+        <v>-0.02318785316038156</v>
       </c>
       <c r="F52">
-        <v>0.04778321303991489</v>
+        <v>0.03454141738659499</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1620407960162525</v>
+        <v>-0.1739487558370514</v>
       </c>
       <c r="C53">
-        <v>-0.04911036306211695</v>
+        <v>0.0163890343753569</v>
       </c>
       <c r="D53">
-        <v>-0.002200516457793933</v>
+        <v>-0.01240343997895471</v>
       </c>
       <c r="E53">
-        <v>0.04399123186015199</v>
+        <v>-0.03597088384154406</v>
       </c>
       <c r="F53">
-        <v>0.0540714267947798</v>
+        <v>0.06399573889990216</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.05557700342852422</v>
+        <v>-0.02174444694191273</v>
       </c>
       <c r="C54">
-        <v>-0.06237975146211627</v>
+        <v>0.01240704396909363</v>
       </c>
       <c r="D54">
-        <v>-0.009700774849222136</v>
+        <v>-0.03409763101685368</v>
       </c>
       <c r="E54">
-        <v>0.01849914426970762</v>
+        <v>-0.01551692769798364</v>
       </c>
       <c r="F54">
-        <v>0.01048178675067876</v>
+        <v>-0.004833639784526415</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.09002345049685537</v>
+        <v>-0.1144755434921473</v>
       </c>
       <c r="C55">
-        <v>-0.04356181603431121</v>
+        <v>0.015045445237701</v>
       </c>
       <c r="D55">
-        <v>0.02931578186112876</v>
+        <v>-0.01135274124832117</v>
       </c>
       <c r="E55">
-        <v>0.01372573430521293</v>
+        <v>-0.03049017756210528</v>
       </c>
       <c r="F55">
-        <v>0.01628120786993429</v>
+        <v>0.04641929525757587</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1544520110096011</v>
+        <v>-0.1776953819530262</v>
       </c>
       <c r="C56">
-        <v>-0.07646875355809823</v>
+        <v>0.01377961832072593</v>
       </c>
       <c r="D56">
-        <v>0.0291984129206194</v>
+        <v>-0.007710204177068807</v>
       </c>
       <c r="E56">
-        <v>0.07538395981064755</v>
+        <v>-0.04040349289500193</v>
       </c>
       <c r="F56">
-        <v>0.0216791822499984</v>
+        <v>0.0400726251816787</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04905050224898608</v>
+        <v>-0.04598647505983653</v>
       </c>
       <c r="C58">
-        <v>-0.04405515374524599</v>
+        <v>0.002336121307903448</v>
       </c>
       <c r="D58">
-        <v>-0.06849195062348093</v>
+        <v>-0.06518391835336158</v>
       </c>
       <c r="E58">
-        <v>0.03123961973833247</v>
+        <v>-0.02273859722187124</v>
       </c>
       <c r="F58">
-        <v>0.0417501164743871</v>
+        <v>-0.04668653301777707</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1998547593340143</v>
+        <v>-0.1712797635231192</v>
       </c>
       <c r="C59">
-        <v>0.2377539945926762</v>
+        <v>0.01605780928462019</v>
       </c>
       <c r="D59">
-        <v>0.04242968471233764</v>
+        <v>0.2258138560051002</v>
       </c>
       <c r="E59">
-        <v>-0.02527995824732791</v>
+        <v>0.04933708177542242</v>
       </c>
       <c r="F59">
-        <v>-0.04330962681642249</v>
+        <v>-0.03125395714717014</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2333356530826199</v>
+        <v>-0.2371941616193551</v>
       </c>
       <c r="C60">
-        <v>-0.08575621662690966</v>
+        <v>-0.004030558712854862</v>
       </c>
       <c r="D60">
-        <v>0.05201180125409886</v>
+        <v>-0.04700054762187327</v>
       </c>
       <c r="E60">
-        <v>0.1086564984207763</v>
+        <v>-0.007186766416071522</v>
       </c>
       <c r="F60">
-        <v>-0.07240002523218794</v>
+        <v>-0.02972536532875177</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1100168579319888</v>
+        <v>-0.08409560850441511</v>
       </c>
       <c r="C61">
-        <v>-0.07399798843175398</v>
+        <v>0.01401586960950922</v>
       </c>
       <c r="D61">
-        <v>0.1172093885262335</v>
+        <v>-0.1119649730628151</v>
       </c>
       <c r="E61">
-        <v>0.01633170549738691</v>
+        <v>-0.04171325572982158</v>
       </c>
       <c r="F61">
-        <v>0.0649076315700261</v>
+        <v>0.01779832632348931</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1548967009745583</v>
+        <v>-0.1705606144570705</v>
       </c>
       <c r="C62">
-        <v>-0.05665104601148743</v>
+        <v>0.01777926036089936</v>
       </c>
       <c r="D62">
-        <v>-0.0005953180917387426</v>
+        <v>-0.01137576798191654</v>
       </c>
       <c r="E62">
-        <v>0.05883568621805767</v>
+        <v>-0.03826814430161368</v>
       </c>
       <c r="F62">
-        <v>0.01571769927087659</v>
+        <v>0.02159890106032245</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.03915800637583317</v>
+        <v>-0.04292344886004986</v>
       </c>
       <c r="C63">
-        <v>-0.02072346281626198</v>
+        <v>0.003556040708600049</v>
       </c>
       <c r="D63">
-        <v>-0.003942912802674665</v>
+        <v>-0.05085538752520703</v>
       </c>
       <c r="E63">
-        <v>-0.02985789282381512</v>
+        <v>-0.02254278443568983</v>
       </c>
       <c r="F63">
-        <v>0.001399256944929655</v>
+        <v>0.007939244676685542</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.0926236303395376</v>
+        <v>-0.1121171709830921</v>
       </c>
       <c r="C64">
-        <v>-0.04899466611638572</v>
+        <v>0.01196644968482126</v>
       </c>
       <c r="D64">
-        <v>0.01455711665516696</v>
+        <v>-0.04213809154735444</v>
       </c>
       <c r="E64">
-        <v>0.06384463917110358</v>
+        <v>-0.02130309949318791</v>
       </c>
       <c r="F64">
-        <v>0.05594635070195113</v>
+        <v>0.02350128478635967</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1122983135875236</v>
+        <v>-0.1444508382107229</v>
       </c>
       <c r="C65">
-        <v>-0.01869752842275434</v>
+        <v>0.03117370045986526</v>
       </c>
       <c r="D65">
-        <v>-0.001829324632058058</v>
+        <v>0.04284969553505918</v>
       </c>
       <c r="E65">
-        <v>-0.06258238560105628</v>
+        <v>-0.0002976938147393297</v>
       </c>
       <c r="F65">
-        <v>0.02350925619787852</v>
+        <v>0.04269237624155604</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1340534855138037</v>
+        <v>-0.1309645561332107</v>
       </c>
       <c r="C66">
-        <v>-0.1352220030099825</v>
+        <v>0.01556373511961205</v>
       </c>
       <c r="D66">
-        <v>0.1446707292315325</v>
+        <v>-0.1394802914756836</v>
       </c>
       <c r="E66">
-        <v>0.004979674783351766</v>
+        <v>-0.06714087219948599</v>
       </c>
       <c r="F66">
-        <v>0.07693162899406364</v>
+        <v>0.0377317850295324</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06387969493699393</v>
+        <v>-0.06246976193255902</v>
       </c>
       <c r="C67">
-        <v>-0.02593728672572502</v>
+        <v>0.003516452978226102</v>
       </c>
       <c r="D67">
-        <v>-0.01694721157618418</v>
+        <v>-0.05314429108929945</v>
       </c>
       <c r="E67">
-        <v>0.01137529975855376</v>
+        <v>-0.01929280501109673</v>
       </c>
       <c r="F67">
-        <v>0.05071595394269491</v>
+        <v>-0.03899018473988134</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1202323139616435</v>
+        <v>-0.1155895422828796</v>
       </c>
       <c r="C68">
-        <v>0.2472793822900801</v>
+        <v>0.02559116195364944</v>
       </c>
       <c r="D68">
-        <v>0.02099526890925347</v>
+        <v>0.264777449041622</v>
       </c>
       <c r="E68">
-        <v>-0.07031859143283839</v>
+        <v>0.08667864062486247</v>
       </c>
       <c r="F68">
-        <v>0.03438280834612636</v>
+        <v>0.03589837187943706</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03619748044172048</v>
+        <v>-0.03928332947955469</v>
       </c>
       <c r="C69">
-        <v>0.0150737168072998</v>
+        <v>0.001082755705878057</v>
       </c>
       <c r="D69">
-        <v>-0.0056020008897523</v>
+        <v>-0.009101039191363887</v>
       </c>
       <c r="E69">
-        <v>0.006382532935730969</v>
+        <v>-0.02434175763651245</v>
       </c>
       <c r="F69">
-        <v>0.0522141945686642</v>
+        <v>-0.01291543727085661</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03624300559427947</v>
+        <v>-0.06344597020678251</v>
       </c>
       <c r="C70">
-        <v>-0.0102060529963528</v>
+        <v>-0.02773506983146453</v>
       </c>
       <c r="D70">
-        <v>0.04589184092384813</v>
+        <v>-0.02661338870888142</v>
       </c>
       <c r="E70">
-        <v>0.01772828371416395</v>
+        <v>0.04722317104741657</v>
       </c>
       <c r="F70">
-        <v>0.09991879860064844</v>
+        <v>-0.2777987224957149</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1401606114076504</v>
+        <v>-0.1344443545393887</v>
       </c>
       <c r="C71">
-        <v>0.2680166993167764</v>
+        <v>0.02988246692965851</v>
       </c>
       <c r="D71">
-        <v>0.0144961634920947</v>
+        <v>0.280076255853026</v>
       </c>
       <c r="E71">
-        <v>-0.03330738950801376</v>
+        <v>0.09521618441752709</v>
       </c>
       <c r="F71">
-        <v>0.0681044101841022</v>
+        <v>0.04127206887068495</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1431466794889299</v>
+        <v>-0.1398485269780723</v>
       </c>
       <c r="C72">
-        <v>-0.02213760540715653</v>
+        <v>0.02458388290925539</v>
       </c>
       <c r="D72">
-        <v>-0.01103572745263653</v>
+        <v>-0.005363233741540992</v>
       </c>
       <c r="E72">
-        <v>0.008460601646470984</v>
+        <v>-0.04553041895736214</v>
       </c>
       <c r="F72">
-        <v>0.01619451140628844</v>
+        <v>0.02119502469368273</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2199914164506082</v>
+        <v>-0.2043131882533138</v>
       </c>
       <c r="C73">
-        <v>-0.02274847285302911</v>
+        <v>0.01144730804316221</v>
       </c>
       <c r="D73">
-        <v>0.1047830891983568</v>
+        <v>-0.01600127247062048</v>
       </c>
       <c r="E73">
-        <v>0.1395372458525359</v>
+        <v>-0.06234535236851802</v>
       </c>
       <c r="F73">
-        <v>-0.0522310946144369</v>
+        <v>0.03810571284312859</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1212935548032919</v>
+        <v>-0.09402703136323459</v>
       </c>
       <c r="C74">
-        <v>-0.08866656649626087</v>
+        <v>0.01213530667362254</v>
       </c>
       <c r="D74">
-        <v>0.005074569896026896</v>
+        <v>-0.02245304615646015</v>
       </c>
       <c r="E74">
-        <v>0.02763647392782332</v>
+        <v>-0.04869891748441527</v>
       </c>
       <c r="F74">
-        <v>0.08102991626913607</v>
+        <v>0.04365801549346825</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1100144283786423</v>
+        <v>-0.1299317500149774</v>
       </c>
       <c r="C75">
-        <v>-0.06548816477812709</v>
+        <v>0.02637963250902168</v>
       </c>
       <c r="D75">
-        <v>0.001627222648668095</v>
+        <v>-0.03376120868415865</v>
       </c>
       <c r="E75">
-        <v>0.01920317720306997</v>
+        <v>-0.06064457679263015</v>
       </c>
       <c r="F75">
-        <v>-0.01126842438796472</v>
+        <v>0.01366767730755634</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.0270697923581076</v>
+        <v>-0.004138205263988687</v>
       </c>
       <c r="C76">
-        <v>0.009657079912334101</v>
+        <v>0.0009633625788797809</v>
       </c>
       <c r="D76">
-        <v>0.01314950029919236</v>
+        <v>0.002257863401492834</v>
       </c>
       <c r="E76">
-        <v>0.01951030725596853</v>
+        <v>-0.001317022835270142</v>
       </c>
       <c r="F76">
-        <v>0.004110049392871252</v>
+        <v>0.003906139142080022</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06502702895306579</v>
+        <v>-0.07902215820670686</v>
       </c>
       <c r="C77">
-        <v>-0.04697284590801984</v>
+        <v>0.01025933685211394</v>
       </c>
       <c r="D77">
-        <v>0.03811899535151876</v>
+        <v>-0.1128703948325193</v>
       </c>
       <c r="E77">
-        <v>0.04536585900716242</v>
+        <v>-0.03785852675044283</v>
       </c>
       <c r="F77">
-        <v>-0.01488873193846</v>
+        <v>0.03619456415012811</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1305627373717296</v>
+        <v>-0.1054232315421392</v>
       </c>
       <c r="C78">
-        <v>-0.0790956510119296</v>
+        <v>0.04178229433836346</v>
       </c>
       <c r="D78">
-        <v>-0.239284791497235</v>
+        <v>-0.1158279972786283</v>
       </c>
       <c r="E78">
-        <v>-0.1093443511880677</v>
+        <v>-0.08217713866076067</v>
       </c>
       <c r="F78">
-        <v>-0.6642678474976902</v>
+        <v>0.07824757176390162</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1286721971416426</v>
+        <v>-0.1645619907728664</v>
       </c>
       <c r="C79">
-        <v>-0.05480426034630122</v>
+        <v>0.02037230323653121</v>
       </c>
       <c r="D79">
-        <v>-0.01235463157248248</v>
+        <v>-0.01924906740532254</v>
       </c>
       <c r="E79">
-        <v>0.0478607251594054</v>
+        <v>-0.0496799339451512</v>
       </c>
       <c r="F79">
-        <v>0.01156924462429587</v>
+        <v>0.005506517040194996</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07803286927561652</v>
+        <v>-0.0801219893838656</v>
       </c>
       <c r="C80">
-        <v>-0.0819531977245334</v>
+        <v>-0.0004630377840732014</v>
       </c>
       <c r="D80">
-        <v>0.08000870682743159</v>
+        <v>-0.05794623307732769</v>
       </c>
       <c r="E80">
-        <v>0.0126350913051919</v>
+        <v>-0.03519048286915874</v>
       </c>
       <c r="F80">
-        <v>0.1023397761912658</v>
+        <v>-0.01553694780102124</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1393396710857384</v>
+        <v>-0.123202254350353</v>
       </c>
       <c r="C81">
-        <v>-0.08632484797937445</v>
+        <v>0.03037744239514581</v>
       </c>
       <c r="D81">
-        <v>0.008055571275207552</v>
+        <v>-0.01852041109551794</v>
       </c>
       <c r="E81">
-        <v>0.04280144256542694</v>
+        <v>-0.05977738003360911</v>
       </c>
       <c r="F81">
-        <v>0.002627312704804375</v>
+        <v>0.004417312946529424</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1543982336620789</v>
+        <v>-0.1638249067853633</v>
       </c>
       <c r="C82">
-        <v>-0.06987172139826703</v>
+        <v>0.02135101704640075</v>
       </c>
       <c r="D82">
-        <v>0.02082575466416652</v>
+        <v>-0.01585322328066857</v>
       </c>
       <c r="E82">
-        <v>0.04530111586055428</v>
+        <v>-0.03436565452695976</v>
       </c>
       <c r="F82">
-        <v>0.05153948858758522</v>
+        <v>0.06271994798009685</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08383124605395589</v>
+        <v>-0.06362210691959791</v>
       </c>
       <c r="C83">
-        <v>-0.137774641761227</v>
+        <v>0.003520380480880389</v>
       </c>
       <c r="D83">
-        <v>-0.01513633583320791</v>
+        <v>-0.0488281583055046</v>
       </c>
       <c r="E83">
-        <v>-0.001768847167619662</v>
+        <v>-0.004828675748689442</v>
       </c>
       <c r="F83">
-        <v>0.03381121196035761</v>
+        <v>-0.0407397268950361</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.0552387299681766</v>
+        <v>-0.05939745407461971</v>
       </c>
       <c r="C84">
-        <v>0.09347065865768471</v>
+        <v>0.01127780347200338</v>
       </c>
       <c r="D84">
-        <v>0.05515113069655848</v>
+        <v>-0.06324175052694787</v>
       </c>
       <c r="E84">
-        <v>-0.009193922639928706</v>
+        <v>-0.001355186237895705</v>
       </c>
       <c r="F84">
-        <v>-0.168706296715489</v>
+        <v>0.01137061264727689</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1242579738566859</v>
+        <v>-0.1387323322501841</v>
       </c>
       <c r="C85">
-        <v>-0.05090151780050976</v>
+        <v>0.0258314301376736</v>
       </c>
       <c r="D85">
-        <v>0.01277861446729659</v>
+        <v>-0.01606333940705123</v>
       </c>
       <c r="E85">
-        <v>0.06240107675455446</v>
+        <v>-0.04130450267324506</v>
       </c>
       <c r="F85">
-        <v>0.0248001108195735</v>
+        <v>0.04494139224839047</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08573069558554589</v>
+        <v>-0.09786339789398631</v>
       </c>
       <c r="C86">
-        <v>0.003899093829072235</v>
+        <v>-0.007035269496655587</v>
       </c>
       <c r="D86">
-        <v>-0.0269339399968919</v>
+        <v>-0.02018203899664009</v>
       </c>
       <c r="E86">
-        <v>0.1348501881228482</v>
+        <v>-0.152195135125189</v>
       </c>
       <c r="F86">
-        <v>-0.4957546390724148</v>
+        <v>-0.8656623697384274</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1120696187943246</v>
+        <v>-0.09894076375562473</v>
       </c>
       <c r="C87">
-        <v>-0.1138539612200737</v>
+        <v>0.02511496348011106</v>
       </c>
       <c r="D87">
-        <v>-0.0327688123707422</v>
+        <v>-0.07685087847340437</v>
       </c>
       <c r="E87">
-        <v>0.07919166544132085</v>
+        <v>0.0538703298066524</v>
       </c>
       <c r="F87">
-        <v>-0.04253177583107202</v>
+        <v>0.08006356124557118</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05198340944896785</v>
+        <v>-0.06133969634528139</v>
       </c>
       <c r="C88">
-        <v>-0.05204331753458272</v>
+        <v>0.003030725790851032</v>
       </c>
       <c r="D88">
-        <v>0.0458540076137183</v>
+        <v>-0.0538308855718368</v>
       </c>
       <c r="E88">
-        <v>0.02412261109807503</v>
+        <v>-0.02785126405160056</v>
       </c>
       <c r="F88">
-        <v>0.04699679035444443</v>
+        <v>0.008465536835545927</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1965506657077812</v>
+        <v>-0.1350300536711779</v>
       </c>
       <c r="C89">
-        <v>0.3639297858935135</v>
+        <v>0.007957817746801115</v>
       </c>
       <c r="D89">
-        <v>-0.05203020704259778</v>
+        <v>0.2587619186501053</v>
       </c>
       <c r="E89">
-        <v>-0.01879858127450792</v>
+        <v>0.0913217717599476</v>
       </c>
       <c r="F89">
-        <v>0.04226537898088764</v>
+        <v>0.02411316526951692</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1516905544466431</v>
+        <v>-0.1452682576873338</v>
       </c>
       <c r="C90">
-        <v>0.2544381087625946</v>
+        <v>0.02524432009495996</v>
       </c>
       <c r="D90">
-        <v>0.0294987415584371</v>
+        <v>0.2674571101351231</v>
       </c>
       <c r="E90">
-        <v>-0.01980838048984292</v>
+        <v>0.1083423698990027</v>
       </c>
       <c r="F90">
-        <v>0.04441533524241754</v>
+        <v>0.02462219461390399</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.08036808829689952</v>
+        <v>-0.1186585801633535</v>
       </c>
       <c r="C91">
-        <v>-0.04182315551683006</v>
+        <v>0.01671204981915841</v>
       </c>
       <c r="D91">
-        <v>0.007118734494945157</v>
+        <v>0.007354819824875725</v>
       </c>
       <c r="E91">
-        <v>0.04301854107433276</v>
+        <v>-0.05764388763171807</v>
       </c>
       <c r="F91">
-        <v>0.001209902092899298</v>
+        <v>-0.02096376171751741</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1703900042547274</v>
+        <v>-0.1490304860567098</v>
       </c>
       <c r="C92">
-        <v>0.2998076259191733</v>
+        <v>0.01715064413059268</v>
       </c>
       <c r="D92">
-        <v>-0.02482587610771243</v>
+        <v>0.2987370994295568</v>
       </c>
       <c r="E92">
-        <v>-0.02913717641157131</v>
+        <v>0.1038369499477191</v>
       </c>
       <c r="F92">
-        <v>0.03184258036095512</v>
+        <v>0.02161898234293013</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1541146384295301</v>
+        <v>-0.1499236579342783</v>
       </c>
       <c r="C93">
-        <v>0.3156596664629501</v>
+        <v>0.02187458029160311</v>
       </c>
       <c r="D93">
-        <v>0.0600625079707932</v>
+        <v>0.2703030453979841</v>
       </c>
       <c r="E93">
-        <v>-0.02755661814883463</v>
+        <v>0.07397878302706529</v>
       </c>
       <c r="F93">
-        <v>0.04074917656041206</v>
+        <v>0.01704786938527606</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1345942323911123</v>
+        <v>-0.1331680065033402</v>
       </c>
       <c r="C94">
-        <v>-0.06024500491732516</v>
+        <v>0.02380465012620407</v>
       </c>
       <c r="D94">
-        <v>-0.01590101929996919</v>
+        <v>-0.04616912400073508</v>
       </c>
       <c r="E94">
-        <v>0.0299451241792307</v>
+        <v>-0.0615226695472011</v>
       </c>
       <c r="F94">
-        <v>0.005422303139463448</v>
+        <v>0.03113925213301024</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1172341368525531</v>
+        <v>-0.1258796666599195</v>
       </c>
       <c r="C95">
-        <v>-0.05120669094676868</v>
+        <v>0.00540067490321203</v>
       </c>
       <c r="D95">
-        <v>-0.01249690237258559</v>
+        <v>-0.09040923311879813</v>
       </c>
       <c r="E95">
-        <v>0.04050052941435719</v>
+        <v>-0.04388423059263872</v>
       </c>
       <c r="F95">
-        <v>-0.03929582886678706</v>
+        <v>-0.01257157044813649</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.009610850343625882</v>
+        <v>-0.09857834756978633</v>
       </c>
       <c r="C96">
-        <v>-0.003728930222279997</v>
+        <v>-0.9889385570773761</v>
       </c>
       <c r="D96">
-        <v>-0.006684713206991324</v>
+        <v>0.02769355671480093</v>
       </c>
       <c r="E96">
-        <v>-0.001498613429893257</v>
+        <v>-0.05777780651659939</v>
       </c>
       <c r="F96">
-        <v>-0.03307026689195949</v>
+        <v>0.04794474968331345</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1729249379288089</v>
+        <v>-0.1883456453915583</v>
       </c>
       <c r="C97">
-        <v>-0.1670639300641026</v>
+        <v>-0.01101209403573636</v>
       </c>
       <c r="D97">
-        <v>-0.1781335435094714</v>
+        <v>0.0077606852241919</v>
       </c>
       <c r="E97">
-        <v>-0.8833273707858811</v>
+        <v>-0.01849260142105768</v>
       </c>
       <c r="F97">
-        <v>0.02267380450361327</v>
+        <v>-0.1744803769541231</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2412487685109493</v>
+        <v>-0.2049006711545715</v>
       </c>
       <c r="C98">
-        <v>-0.04754761073813128</v>
+        <v>0.007059568495150649</v>
       </c>
       <c r="D98">
-        <v>-0.0729055799447077</v>
+        <v>-0.01158431666020796</v>
       </c>
       <c r="E98">
-        <v>0.03125457604813443</v>
+        <v>0.09744377177680411</v>
       </c>
       <c r="F98">
-        <v>0.04434410001478078</v>
+        <v>-0.1150352511535134</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05440712883046725</v>
+        <v>-0.05651784529435217</v>
       </c>
       <c r="C99">
-        <v>-0.005445972100967242</v>
+        <v>-0.003787573735740958</v>
       </c>
       <c r="D99">
-        <v>0.003455147495654703</v>
+        <v>-0.03571638600039685</v>
       </c>
       <c r="E99">
-        <v>0.009873815740391902</v>
+        <v>-0.02683891872629727</v>
       </c>
       <c r="F99">
-        <v>0.01778870270235483</v>
+        <v>0.004740033930252373</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.03022827817508923</v>
+        <v>-0.1246628262138263</v>
       </c>
       <c r="C100">
-        <v>-0.0646355948451683</v>
+        <v>-0.04943999750283334</v>
       </c>
       <c r="D100">
-        <v>0.04201543558080322</v>
+        <v>-0.3445543569223012</v>
       </c>
       <c r="E100">
-        <v>-0.09786781200693007</v>
+        <v>0.8956112715693709</v>
       </c>
       <c r="F100">
-        <v>0.233622382163866</v>
+        <v>-0.07671922399695673</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03322320523104026</v>
+        <v>-0.02698103997350713</v>
       </c>
       <c r="C101">
-        <v>-0.03095922190304291</v>
+        <v>0.008832013385831412</v>
       </c>
       <c r="D101">
-        <v>0.0286227978845558</v>
+        <v>-0.03085759757360767</v>
       </c>
       <c r="E101">
-        <v>0.03584078294266452</v>
+        <v>-0.01146071764197542</v>
       </c>
       <c r="F101">
-        <v>0.06338885094266633</v>
+        <v>-0.01436231302477848</v>
       </c>
     </row>
     <row r="102" spans="1:6">
